--- a/заказы/статистика филиалы/2023/11,23/29,11,23 КИ/дв 29,11,23 днрсч от филиала.xlsx
+++ b/заказы/статистика филиалы/2023/11,23/29,11,23 КИ/дв 29,11,23 днрсч от филиала.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\29,11,23 филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\11,23\29,11,23 КИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37CBA51-5F63-4CEA-802E-1406ECD67106}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{298A6147-EA47-4E77-B39F-C43F94581508}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -617,6 +617,8 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
@@ -880,15 +882,15 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -921,9 +923,6 @@
             <v>Период: 15.11.2023 - 22.11.2023</v>
           </cell>
         </row>
-        <row r="2">
-          <cell r="A2"/>
-        </row>
         <row r="3">
           <cell r="A3" t="str">
             <v>Номенклатура</v>
@@ -937,9 +936,6 @@
           <cell r="D3" t="str">
             <v>Количество</v>
           </cell>
-          <cell r="E3"/>
-          <cell r="F3"/>
-          <cell r="G3"/>
           <cell r="H3" t="str">
             <v>крат</v>
           </cell>
@@ -979,7 +975,6 @@
           <cell r="T3" t="str">
             <v xml:space="preserve">ЗАКАЗ </v>
           </cell>
-          <cell r="U3"/>
           <cell r="V3" t="str">
             <v>запас</v>
           </cell>
@@ -1021,19 +1016,12 @@
           <cell r="G4" t="str">
             <v>Конечный остаток</v>
           </cell>
-          <cell r="H4"/>
           <cell r="I4" t="str">
             <v>сроки</v>
           </cell>
-          <cell r="J4"/>
-          <cell r="K4"/>
-          <cell r="L4"/>
           <cell r="M4" t="str">
             <v>Гермес</v>
           </cell>
-          <cell r="N4"/>
-          <cell r="O4"/>
-          <cell r="P4"/>
           <cell r="Q4" t="str">
             <v>25,11,</v>
           </cell>
@@ -1049,27 +1037,14 @@
           <cell r="U4" t="str">
             <v>комментарий филиала</v>
           </cell>
-          <cell r="V4"/>
-          <cell r="W4"/>
-          <cell r="X4"/>
-          <cell r="Y4"/>
-          <cell r="Z4"/>
-          <cell r="AA4"/>
         </row>
         <row r="5">
-          <cell r="A5"/>
-          <cell r="B5"/>
-          <cell r="C5"/>
-          <cell r="D5"/>
-          <cell r="E5"/>
           <cell r="F5">
             <v>29753.395999999993</v>
           </cell>
           <cell r="G5">
             <v>21906.905999999992</v>
           </cell>
-          <cell r="H5"/>
-          <cell r="I5"/>
           <cell r="J5">
             <v>30205.500999999993</v>
           </cell>
@@ -1103,9 +1078,6 @@
           <cell r="T5">
             <v>0</v>
           </cell>
-          <cell r="U5"/>
-          <cell r="V5"/>
-          <cell r="W5"/>
           <cell r="X5">
             <v>3886.9073999999987</v>
           </cell>
@@ -1115,7 +1087,6 @@
           <cell r="Z5">
             <v>3963.9957999999988</v>
           </cell>
-          <cell r="AA5"/>
         </row>
         <row r="6">
           <cell r="A6" t="str">
@@ -1163,9 +1134,6 @@
           <cell r="Q6">
             <v>0</v>
           </cell>
-          <cell r="R6"/>
-          <cell r="S6"/>
-          <cell r="T6"/>
           <cell r="V6">
             <v>13.013723505366539</v>
           </cell>
@@ -1189,11 +1157,9 @@
           <cell r="B7" t="str">
             <v>кг</v>
           </cell>
-          <cell r="C7"/>
           <cell r="D7">
             <v>497.392</v>
           </cell>
-          <cell r="E7"/>
           <cell r="F7">
             <v>251.011</v>
           </cell>
@@ -1227,8 +1193,6 @@
           <cell r="R7">
             <v>200</v>
           </cell>
-          <cell r="S7"/>
-          <cell r="T7"/>
           <cell r="V7">
             <v>13.076040492249344</v>
           </cell>
@@ -1252,7 +1216,6 @@
           <cell r="B8" t="str">
             <v>кг</v>
           </cell>
-          <cell r="C8"/>
           <cell r="D8">
             <v>350.75</v>
           </cell>
@@ -1292,8 +1255,6 @@
           <cell r="R8">
             <v>210</v>
           </cell>
-          <cell r="S8"/>
-          <cell r="T8"/>
           <cell r="V8">
             <v>12.962845156343645</v>
           </cell>
@@ -1317,8 +1278,6 @@
           <cell r="B9" t="str">
             <v>кг</v>
           </cell>
-          <cell r="C9"/>
-          <cell r="D9"/>
           <cell r="E9">
             <v>61.871000000000002</v>
           </cell>
@@ -1349,9 +1308,6 @@
           <cell r="Q9">
             <v>0</v>
           </cell>
-          <cell r="R9"/>
-          <cell r="S9"/>
-          <cell r="T9"/>
           <cell r="V9" t="e">
             <v>#DIV/0!</v>
           </cell>
@@ -1375,11 +1331,9 @@
           <cell r="B10" t="str">
             <v>шт</v>
           </cell>
-          <cell r="C10"/>
           <cell r="D10">
             <v>117</v>
           </cell>
-          <cell r="E10"/>
           <cell r="F10">
             <v>31</v>
           </cell>
@@ -1407,9 +1361,6 @@
           <cell r="Q10">
             <v>0</v>
           </cell>
-          <cell r="R10"/>
-          <cell r="S10"/>
-          <cell r="T10"/>
           <cell r="V10">
             <v>12.903225806451612</v>
           </cell>
@@ -1433,15 +1384,12 @@
           <cell r="B11" t="str">
             <v>шт</v>
           </cell>
-          <cell r="C11"/>
           <cell r="D11">
             <v>102</v>
           </cell>
-          <cell r="E11"/>
           <cell r="F11">
             <v>102</v>
           </cell>
-          <cell r="G11"/>
           <cell r="H11">
             <v>0</v>
           </cell>
@@ -1466,9 +1414,6 @@
           <cell r="Q11">
             <v>0</v>
           </cell>
-          <cell r="R11"/>
-          <cell r="S11"/>
-          <cell r="T11"/>
           <cell r="V11" t="e">
             <v>#DIV/0!</v>
           </cell>
@@ -1492,11 +1437,9 @@
           <cell r="B12" t="str">
             <v>шт</v>
           </cell>
-          <cell r="C12"/>
           <cell r="D12">
             <v>481</v>
           </cell>
-          <cell r="E12"/>
           <cell r="F12">
             <v>282</v>
           </cell>
@@ -1527,8 +1470,6 @@
           <cell r="R12">
             <v>250</v>
           </cell>
-          <cell r="S12"/>
-          <cell r="T12"/>
           <cell r="V12">
             <v>11.063829787234043</v>
           </cell>
@@ -1552,7 +1493,6 @@
           <cell r="B13" t="str">
             <v>шт</v>
           </cell>
-          <cell r="C13"/>
           <cell r="D13">
             <v>721</v>
           </cell>
@@ -1592,8 +1532,6 @@
           <cell r="R13">
             <v>400</v>
           </cell>
-          <cell r="S13"/>
-          <cell r="T13"/>
           <cell r="V13">
             <v>13.004807692307692</v>
           </cell>
@@ -1617,8 +1555,6 @@
           <cell r="B14" t="str">
             <v>шт</v>
           </cell>
-          <cell r="C14"/>
-          <cell r="D14"/>
           <cell r="E14">
             <v>12</v>
           </cell>
@@ -1646,9 +1582,6 @@
           <cell r="Q14">
             <v>0</v>
           </cell>
-          <cell r="R14"/>
-          <cell r="S14"/>
-          <cell r="T14"/>
           <cell r="V14" t="e">
             <v>#DIV/0!</v>
           </cell>
@@ -1672,11 +1605,9 @@
           <cell r="B15" t="str">
             <v>шт</v>
           </cell>
-          <cell r="C15"/>
           <cell r="D15">
             <v>188</v>
           </cell>
-          <cell r="E15"/>
           <cell r="F15">
             <v>42</v>
           </cell>
@@ -1707,9 +1638,6 @@
           <cell r="Q15">
             <v>0</v>
           </cell>
-          <cell r="R15"/>
-          <cell r="S15"/>
-          <cell r="T15"/>
           <cell r="V15">
             <v>60.833333333333336</v>
           </cell>
@@ -1736,11 +1664,9 @@
           <cell r="B16" t="str">
             <v>шт</v>
           </cell>
-          <cell r="C16"/>
           <cell r="D16">
             <v>73</v>
           </cell>
-          <cell r="E16"/>
           <cell r="F16">
             <v>16</v>
           </cell>
@@ -1771,9 +1697,6 @@
           <cell r="Q16">
             <v>0</v>
           </cell>
-          <cell r="R16"/>
-          <cell r="S16"/>
-          <cell r="T16"/>
           <cell r="V16">
             <v>46.5625</v>
           </cell>
@@ -1800,7 +1723,6 @@
           <cell r="B17" t="str">
             <v>шт</v>
           </cell>
-          <cell r="C17"/>
           <cell r="D17">
             <v>250</v>
           </cell>
@@ -1837,9 +1759,6 @@
           <cell r="Q17">
             <v>0</v>
           </cell>
-          <cell r="R17"/>
-          <cell r="S17"/>
-          <cell r="T17"/>
           <cell r="V17" t="e">
             <v>#DIV/0!</v>
           </cell>
@@ -1863,15 +1782,12 @@
           <cell r="B18" t="str">
             <v>шт</v>
           </cell>
-          <cell r="C18"/>
           <cell r="D18">
             <v>40</v>
           </cell>
-          <cell r="E18"/>
           <cell r="F18">
             <v>40</v>
           </cell>
-          <cell r="G18"/>
           <cell r="H18">
             <v>0</v>
           </cell>
@@ -1896,9 +1812,6 @@
           <cell r="Q18">
             <v>0</v>
           </cell>
-          <cell r="R18"/>
-          <cell r="S18"/>
-          <cell r="T18"/>
           <cell r="V18" t="e">
             <v>#DIV/0!</v>
           </cell>
@@ -1922,11 +1835,9 @@
           <cell r="B19" t="str">
             <v>шт</v>
           </cell>
-          <cell r="C19"/>
           <cell r="D19">
             <v>128</v>
           </cell>
-          <cell r="E19"/>
           <cell r="F19">
             <v>88</v>
           </cell>
@@ -1957,9 +1868,6 @@
           <cell r="Q19">
             <v>22</v>
           </cell>
-          <cell r="R19"/>
-          <cell r="S19"/>
-          <cell r="T19"/>
           <cell r="V19">
             <v>12.954545454545453</v>
           </cell>
@@ -1983,15 +1891,12 @@
           <cell r="B20" t="str">
             <v>шт</v>
           </cell>
-          <cell r="C20"/>
           <cell r="D20">
             <v>300</v>
           </cell>
-          <cell r="E20"/>
           <cell r="F20">
             <v>300</v>
           </cell>
-          <cell r="G20"/>
           <cell r="H20">
             <v>0</v>
           </cell>
@@ -2016,9 +1921,6 @@
           <cell r="Q20">
             <v>0</v>
           </cell>
-          <cell r="R20"/>
-          <cell r="S20"/>
-          <cell r="T20"/>
           <cell r="V20" t="e">
             <v>#DIV/0!</v>
           </cell>
@@ -2042,8 +1944,6 @@
           <cell r="B21" t="str">
             <v>шт</v>
           </cell>
-          <cell r="C21"/>
-          <cell r="D21"/>
           <cell r="E21">
             <v>20</v>
           </cell>
@@ -2074,9 +1974,6 @@
           <cell r="Q21">
             <v>0</v>
           </cell>
-          <cell r="R21"/>
-          <cell r="S21"/>
-          <cell r="T21"/>
           <cell r="V21" t="e">
             <v>#DIV/0!</v>
           </cell>
@@ -2100,15 +1997,12 @@
           <cell r="B22" t="str">
             <v>шт</v>
           </cell>
-          <cell r="C22"/>
           <cell r="D22">
             <v>102</v>
           </cell>
-          <cell r="E22"/>
           <cell r="F22">
             <v>102</v>
           </cell>
-          <cell r="G22"/>
           <cell r="H22">
             <v>0</v>
           </cell>
@@ -2133,9 +2027,6 @@
           <cell r="Q22">
             <v>0</v>
           </cell>
-          <cell r="R22"/>
-          <cell r="S22"/>
-          <cell r="T22"/>
           <cell r="V22" t="e">
             <v>#DIV/0!</v>
           </cell>
@@ -2159,11 +2050,9 @@
           <cell r="B23" t="str">
             <v>шт</v>
           </cell>
-          <cell r="C23"/>
           <cell r="D23">
             <v>575</v>
           </cell>
-          <cell r="E23"/>
           <cell r="F23">
             <v>523</v>
           </cell>
@@ -2197,9 +2086,6 @@
           <cell r="Q23">
             <v>0</v>
           </cell>
-          <cell r="R23"/>
-          <cell r="S23"/>
-          <cell r="T23"/>
           <cell r="V23">
             <v>49.736842105263158</v>
           </cell>
@@ -2268,9 +2154,6 @@
           <cell r="Q24">
             <v>0</v>
           </cell>
-          <cell r="R24"/>
-          <cell r="S24"/>
-          <cell r="T24"/>
           <cell r="V24">
             <v>790</v>
           </cell>
@@ -2297,8 +2180,6 @@
           <cell r="B25" t="str">
             <v>шт</v>
           </cell>
-          <cell r="C25"/>
-          <cell r="D25"/>
           <cell r="E25">
             <v>6</v>
           </cell>
@@ -2329,9 +2210,6 @@
           <cell r="Q25">
             <v>0</v>
           </cell>
-          <cell r="R25"/>
-          <cell r="S25"/>
-          <cell r="T25"/>
           <cell r="V25" t="e">
             <v>#DIV/0!</v>
           </cell>
@@ -2355,8 +2233,6 @@
           <cell r="B26" t="str">
             <v>шт</v>
           </cell>
-          <cell r="C26"/>
-          <cell r="D26"/>
           <cell r="E26">
             <v>6</v>
           </cell>
@@ -2384,9 +2260,6 @@
           <cell r="Q26">
             <v>0</v>
           </cell>
-          <cell r="R26"/>
-          <cell r="S26"/>
-          <cell r="T26"/>
           <cell r="V26" t="e">
             <v>#DIV/0!</v>
           </cell>
@@ -2410,7 +2283,6 @@
           <cell r="B27" t="str">
             <v>шт</v>
           </cell>
-          <cell r="C27"/>
           <cell r="D27">
             <v>54</v>
           </cell>
@@ -2450,9 +2322,6 @@
           <cell r="Q27">
             <v>0</v>
           </cell>
-          <cell r="R27"/>
-          <cell r="S27"/>
-          <cell r="T27"/>
           <cell r="V27" t="e">
             <v>#DIV/0!</v>
           </cell>
@@ -2476,15 +2345,12 @@
           <cell r="B28" t="str">
             <v>шт</v>
           </cell>
-          <cell r="C28"/>
           <cell r="D28">
             <v>40</v>
           </cell>
-          <cell r="E28"/>
           <cell r="F28">
             <v>40</v>
           </cell>
-          <cell r="G28"/>
           <cell r="H28">
             <v>0</v>
           </cell>
@@ -2509,9 +2375,6 @@
           <cell r="Q28">
             <v>0</v>
           </cell>
-          <cell r="R28"/>
-          <cell r="S28"/>
-          <cell r="T28"/>
           <cell r="V28" t="e">
             <v>#DIV/0!</v>
           </cell>
@@ -2535,7 +2398,6 @@
           <cell r="B29" t="str">
             <v>шт</v>
           </cell>
-          <cell r="C29"/>
           <cell r="D29">
             <v>33</v>
           </cell>
@@ -2572,9 +2434,6 @@
           <cell r="Q29">
             <v>5</v>
           </cell>
-          <cell r="R29"/>
-          <cell r="S29"/>
-          <cell r="T29"/>
           <cell r="V29">
             <v>14.285714285714286</v>
           </cell>
@@ -2598,15 +2457,12 @@
           <cell r="B30" t="str">
             <v>шт</v>
           </cell>
-          <cell r="C30"/>
           <cell r="D30">
             <v>42</v>
           </cell>
-          <cell r="E30"/>
           <cell r="F30">
             <v>41</v>
           </cell>
-          <cell r="G30"/>
           <cell r="H30">
             <v>0</v>
           </cell>
@@ -2634,9 +2490,6 @@
           <cell r="Q30">
             <v>0</v>
           </cell>
-          <cell r="R30"/>
-          <cell r="S30"/>
-          <cell r="T30"/>
           <cell r="V30">
             <v>-110</v>
           </cell>
@@ -2660,15 +2513,12 @@
           <cell r="B31" t="str">
             <v>шт</v>
           </cell>
-          <cell r="C31"/>
           <cell r="D31">
             <v>42</v>
           </cell>
-          <cell r="E31"/>
           <cell r="F31">
             <v>42</v>
           </cell>
-          <cell r="G31"/>
           <cell r="H31">
             <v>0</v>
           </cell>
@@ -2696,9 +2546,6 @@
           <cell r="Q31">
             <v>0</v>
           </cell>
-          <cell r="R31"/>
-          <cell r="S31"/>
-          <cell r="T31"/>
           <cell r="V31" t="e">
             <v>#DIV/0!</v>
           </cell>
@@ -2764,8 +2611,6 @@
           <cell r="R32">
             <v>400</v>
           </cell>
-          <cell r="S32"/>
-          <cell r="T32"/>
           <cell r="V32">
             <v>13.074459485905365</v>
           </cell>
@@ -2789,7 +2634,6 @@
           <cell r="B33" t="str">
             <v>кг</v>
           </cell>
-          <cell r="C33"/>
           <cell r="D33">
             <v>1091.8030000000001</v>
           </cell>
@@ -2832,7 +2676,6 @@
           <cell r="S33">
             <v>1000</v>
           </cell>
-          <cell r="T33"/>
           <cell r="V33">
             <v>12.983861697124075</v>
           </cell>
@@ -2856,7 +2699,6 @@
           <cell r="B34" t="str">
             <v>кг</v>
           </cell>
-          <cell r="C34"/>
           <cell r="D34">
             <v>14.933</v>
           </cell>
@@ -2890,9 +2732,6 @@
           <cell r="Q34">
             <v>0</v>
           </cell>
-          <cell r="R34"/>
-          <cell r="S34"/>
-          <cell r="T34"/>
           <cell r="V34">
             <v>28.795536593370532</v>
           </cell>
@@ -2922,12 +2761,9 @@
           <cell r="C35" t="str">
             <v>Нояб</v>
           </cell>
-          <cell r="D35"/>
-          <cell r="E35"/>
           <cell r="F35">
             <v>-4.5049999999999999</v>
           </cell>
-          <cell r="G35"/>
           <cell r="H35">
             <v>1</v>
           </cell>
@@ -2952,9 +2788,6 @@
           <cell r="Q35">
             <v>0</v>
           </cell>
-          <cell r="R35"/>
-          <cell r="S35"/>
-          <cell r="T35"/>
           <cell r="V35">
             <v>-186.45948945615982</v>
           </cell>
@@ -2978,8 +2811,6 @@
           <cell r="B36" t="str">
             <v>кг</v>
           </cell>
-          <cell r="C36"/>
-          <cell r="D36"/>
           <cell r="E36">
             <v>12.042</v>
           </cell>
@@ -3010,9 +2841,6 @@
           <cell r="Q36">
             <v>0</v>
           </cell>
-          <cell r="R36"/>
-          <cell r="S36"/>
-          <cell r="T36"/>
           <cell r="V36" t="e">
             <v>#DIV/0!</v>
           </cell>
@@ -3036,7 +2864,6 @@
           <cell r="B37" t="str">
             <v>кг</v>
           </cell>
-          <cell r="C37"/>
           <cell r="D37">
             <v>5957.741</v>
           </cell>
@@ -3079,7 +2906,6 @@
           <cell r="S37">
             <v>2500</v>
           </cell>
-          <cell r="T37"/>
           <cell r="V37">
             <v>13.009940544415979</v>
           </cell>
@@ -3103,8 +2929,6 @@
           <cell r="B38" t="str">
             <v>кг</v>
           </cell>
-          <cell r="C38"/>
-          <cell r="D38"/>
           <cell r="E38">
             <v>259.40699999999998</v>
           </cell>
@@ -3135,9 +2959,6 @@
           <cell r="Q38">
             <v>0</v>
           </cell>
-          <cell r="R38"/>
-          <cell r="S38"/>
-          <cell r="T38"/>
           <cell r="V38" t="e">
             <v>#DIV/0!</v>
           </cell>
@@ -3203,8 +3024,6 @@
           <cell r="R39">
             <v>150</v>
           </cell>
-          <cell r="S39"/>
-          <cell r="T39"/>
           <cell r="V39">
             <v>10.019008887801697</v>
           </cell>
@@ -3270,8 +3089,6 @@
           <cell r="R40">
             <v>800</v>
           </cell>
-          <cell r="S40"/>
-          <cell r="T40"/>
           <cell r="V40">
             <v>8.0072020478111856</v>
           </cell>
@@ -3295,7 +3112,6 @@
           <cell r="B41" t="str">
             <v>кг</v>
           </cell>
-          <cell r="C41"/>
           <cell r="D41">
             <v>4019.011</v>
           </cell>
@@ -3338,7 +3154,6 @@
           <cell r="S41">
             <v>2000</v>
           </cell>
-          <cell r="T41"/>
           <cell r="V41">
             <v>13.012696270484868</v>
           </cell>
@@ -3362,8 +3177,6 @@
           <cell r="B42" t="str">
             <v>кг</v>
           </cell>
-          <cell r="C42"/>
-          <cell r="D42"/>
           <cell r="E42">
             <v>11.56</v>
           </cell>
@@ -3394,9 +3207,6 @@
           <cell r="Q42">
             <v>0</v>
           </cell>
-          <cell r="R42"/>
-          <cell r="S42"/>
-          <cell r="T42"/>
           <cell r="V42" t="e">
             <v>#DIV/0!</v>
           </cell>
@@ -3420,7 +3230,6 @@
           <cell r="B43" t="str">
             <v>кг</v>
           </cell>
-          <cell r="C43"/>
           <cell r="D43">
             <v>255.202</v>
           </cell>
@@ -3463,7 +3272,6 @@
           <cell r="S43">
             <v>400</v>
           </cell>
-          <cell r="T43"/>
           <cell r="V43">
             <v>13.013801479290553</v>
           </cell>
@@ -3526,9 +3334,6 @@
           <cell r="Q44">
             <v>385</v>
           </cell>
-          <cell r="R44"/>
-          <cell r="S44"/>
-          <cell r="T44"/>
           <cell r="V44">
             <v>10.039771597985956</v>
           </cell>
@@ -3552,8 +3357,6 @@
           <cell r="B45" t="str">
             <v>кг</v>
           </cell>
-          <cell r="C45"/>
-          <cell r="D45"/>
           <cell r="E45">
             <v>10.765000000000001</v>
           </cell>
@@ -3584,9 +3387,6 @@
           <cell r="Q45">
             <v>0</v>
           </cell>
-          <cell r="R45"/>
-          <cell r="S45"/>
-          <cell r="T45"/>
           <cell r="V45">
             <v>34.288321167883204</v>
           </cell>
@@ -3655,7 +3455,6 @@
           <cell r="S46">
             <v>300</v>
           </cell>
-          <cell r="T46"/>
           <cell r="V46">
             <v>9.0072753370296361</v>
           </cell>
@@ -3679,7 +3478,6 @@
           <cell r="B47" t="str">
             <v>кг</v>
           </cell>
-          <cell r="C47"/>
           <cell r="D47">
             <v>24.542999999999999</v>
           </cell>
@@ -3713,9 +3511,6 @@
           <cell r="Q47">
             <v>40</v>
           </cell>
-          <cell r="R47"/>
-          <cell r="S47"/>
-          <cell r="T47"/>
           <cell r="V47">
             <v>11.139215939966359</v>
           </cell>
@@ -3784,7 +3579,6 @@
           <cell r="S48">
             <v>500</v>
           </cell>
-          <cell r="T48"/>
           <cell r="V48">
             <v>10.002581633915474</v>
           </cell>
@@ -3808,11 +3602,9 @@
           <cell r="B49" t="str">
             <v>кг</v>
           </cell>
-          <cell r="C49"/>
           <cell r="D49">
             <v>87.15</v>
           </cell>
-          <cell r="E49"/>
           <cell r="F49">
             <v>71.251999999999995</v>
           </cell>
@@ -3843,9 +3635,6 @@
           <cell r="Q49">
             <v>95</v>
           </cell>
-          <cell r="R49"/>
-          <cell r="S49"/>
-          <cell r="T49"/>
           <cell r="V49">
             <v>13.090860607421547</v>
           </cell>
@@ -3869,7 +3658,6 @@
           <cell r="B50" t="str">
             <v>кг</v>
           </cell>
-          <cell r="C50"/>
           <cell r="D50">
             <v>257.02699999999999</v>
           </cell>
@@ -3906,9 +3694,6 @@
           <cell r="Q50">
             <v>140</v>
           </cell>
-          <cell r="R50"/>
-          <cell r="S50"/>
-          <cell r="T50"/>
           <cell r="V50">
             <v>13.040212362824962</v>
           </cell>
@@ -3932,7 +3717,6 @@
           <cell r="B51" t="str">
             <v>кг</v>
           </cell>
-          <cell r="C51"/>
           <cell r="D51">
             <v>461.64100000000002</v>
           </cell>
@@ -3975,7 +3759,6 @@
           <cell r="S51">
             <v>200</v>
           </cell>
-          <cell r="T51"/>
           <cell r="V51">
             <v>12.02960621831096</v>
           </cell>
@@ -3999,7 +3782,6 @@
           <cell r="B52" t="str">
             <v>кг</v>
           </cell>
-          <cell r="C52"/>
           <cell r="D52">
             <v>35.335999999999999</v>
           </cell>
@@ -4033,9 +3815,6 @@
           <cell r="Q52">
             <v>0</v>
           </cell>
-          <cell r="R52"/>
-          <cell r="S52"/>
-          <cell r="T52"/>
           <cell r="V52">
             <v>16.445561549779303</v>
           </cell>
@@ -4059,11 +3838,9 @@
           <cell r="B53" t="str">
             <v>кг</v>
           </cell>
-          <cell r="C53"/>
           <cell r="D53">
             <v>67.69</v>
           </cell>
-          <cell r="E53"/>
           <cell r="F53">
             <v>2.7290000000000001</v>
           </cell>
@@ -4091,9 +3868,6 @@
           <cell r="Q53">
             <v>0</v>
           </cell>
-          <cell r="R53"/>
-          <cell r="S53"/>
-          <cell r="T53"/>
           <cell r="V53">
             <v>119.01978746793695</v>
           </cell>
@@ -4120,7 +3894,6 @@
           <cell r="B54" t="str">
             <v>кг</v>
           </cell>
-          <cell r="C54"/>
           <cell r="D54">
             <v>1756.1369999999999</v>
           </cell>
@@ -4160,8 +3933,6 @@
           <cell r="R54">
             <v>900</v>
           </cell>
-          <cell r="S54"/>
-          <cell r="T54"/>
           <cell r="V54">
             <v>13.002382326367117</v>
           </cell>
@@ -4185,11 +3956,9 @@
           <cell r="B55" t="str">
             <v>кг</v>
           </cell>
-          <cell r="C55"/>
           <cell r="D55">
             <v>68.031000000000006</v>
           </cell>
-          <cell r="E55"/>
           <cell r="F55">
             <v>8.0730000000000004</v>
           </cell>
@@ -4220,9 +3989,6 @@
           <cell r="Q55">
             <v>0</v>
           </cell>
-          <cell r="R55"/>
-          <cell r="S55"/>
-          <cell r="T55"/>
           <cell r="V55">
             <v>77.392543044716959</v>
           </cell>
@@ -4249,8 +4015,6 @@
           <cell r="B56" t="str">
             <v>кг</v>
           </cell>
-          <cell r="C56"/>
-          <cell r="D56"/>
           <cell r="E56">
             <v>8.5</v>
           </cell>
@@ -4281,9 +4045,6 @@
           <cell r="Q56">
             <v>0</v>
           </cell>
-          <cell r="R56"/>
-          <cell r="S56"/>
-          <cell r="T56"/>
           <cell r="V56">
             <v>55.283687943262414</v>
           </cell>
@@ -4307,7 +4068,6 @@
           <cell r="B57" t="str">
             <v>кг</v>
           </cell>
-          <cell r="C57"/>
           <cell r="D57">
             <v>14.986000000000001</v>
           </cell>
@@ -4344,9 +4104,6 @@
           <cell r="Q57">
             <v>0</v>
           </cell>
-          <cell r="R57"/>
-          <cell r="S57"/>
-          <cell r="T57"/>
           <cell r="V57">
             <v>17.48453112797613</v>
           </cell>
@@ -4370,7 +4127,6 @@
           <cell r="B58" t="str">
             <v>кг</v>
           </cell>
-          <cell r="C58"/>
           <cell r="D58">
             <v>106.51300000000001</v>
           </cell>
@@ -4407,9 +4163,6 @@
           <cell r="Q58">
             <v>150</v>
           </cell>
-          <cell r="R58"/>
-          <cell r="S58"/>
-          <cell r="T58"/>
           <cell r="V58">
             <v>9.9564613633753396</v>
           </cell>
@@ -4433,11 +4186,9 @@
           <cell r="B59" t="str">
             <v>шт</v>
           </cell>
-          <cell r="C59"/>
           <cell r="D59">
             <v>183</v>
           </cell>
-          <cell r="E59"/>
           <cell r="F59">
             <v>131</v>
           </cell>
@@ -4465,9 +4216,6 @@
           <cell r="Q59">
             <v>220</v>
           </cell>
-          <cell r="R59"/>
-          <cell r="S59"/>
-          <cell r="T59"/>
           <cell r="V59">
             <v>10</v>
           </cell>
@@ -4533,8 +4281,6 @@
           <cell r="R60">
             <v>600</v>
           </cell>
-          <cell r="S60"/>
-          <cell r="T60"/>
           <cell r="V60">
             <v>10.006839945280438</v>
           </cell>
@@ -4558,7 +4304,6 @@
           <cell r="B61" t="str">
             <v>шт</v>
           </cell>
-          <cell r="C61"/>
           <cell r="D61">
             <v>91</v>
           </cell>
@@ -4592,9 +4337,6 @@
           <cell r="Q61">
             <v>60</v>
           </cell>
-          <cell r="R61"/>
-          <cell r="S61"/>
-          <cell r="T61"/>
           <cell r="V61">
             <v>13.18181818181818</v>
           </cell>
@@ -4618,7 +4360,6 @@
           <cell r="B62" t="str">
             <v>кг</v>
           </cell>
-          <cell r="C62"/>
           <cell r="D62">
             <v>362.33600000000001</v>
           </cell>
@@ -4658,8 +4399,6 @@
           <cell r="R62">
             <v>300</v>
           </cell>
-          <cell r="S62"/>
-          <cell r="T62"/>
           <cell r="V62">
             <v>12.039413196126258</v>
           </cell>
@@ -4683,11 +4422,9 @@
           <cell r="B63" t="str">
             <v>шт</v>
           </cell>
-          <cell r="C63"/>
           <cell r="D63">
             <v>254</v>
           </cell>
-          <cell r="E63"/>
           <cell r="F63">
             <v>146</v>
           </cell>
@@ -4718,8 +4455,6 @@
           <cell r="R63">
             <v>100</v>
           </cell>
-          <cell r="S63"/>
-          <cell r="T63"/>
           <cell r="V63">
             <v>10.95890410958904</v>
           </cell>
@@ -4749,7 +4484,6 @@
           <cell r="D64">
             <v>768</v>
           </cell>
-          <cell r="E64"/>
           <cell r="F64">
             <v>567</v>
           </cell>
@@ -4783,8 +4517,6 @@
           <cell r="R64">
             <v>400</v>
           </cell>
-          <cell r="S64"/>
-          <cell r="T64"/>
           <cell r="V64">
             <v>10</v>
           </cell>
@@ -4850,9 +4582,6 @@
           <cell r="Q65">
             <v>1655</v>
           </cell>
-          <cell r="R65"/>
-          <cell r="S65"/>
-          <cell r="T65"/>
           <cell r="V65">
             <v>9.014705882352942</v>
           </cell>
@@ -4882,7 +4611,6 @@
           <cell r="D66">
             <v>84</v>
           </cell>
-          <cell r="E66"/>
           <cell r="F66">
             <v>58</v>
           </cell>
@@ -4913,9 +4641,6 @@
           <cell r="Q66">
             <v>90</v>
           </cell>
-          <cell r="R66"/>
-          <cell r="S66"/>
-          <cell r="T66"/>
           <cell r="V66">
             <v>11.120689655172415</v>
           </cell>
@@ -4978,9 +4703,6 @@
           <cell r="Q67">
             <v>0</v>
           </cell>
-          <cell r="R67"/>
-          <cell r="S67"/>
-          <cell r="T67"/>
           <cell r="V67">
             <v>43.188358285069029</v>
           </cell>
@@ -5046,11 +4768,9 @@
           <cell r="Q68">
             <v>420</v>
           </cell>
-          <cell r="R68"/>
           <cell r="S68">
             <v>100</v>
           </cell>
-          <cell r="T68"/>
           <cell r="V68">
             <v>12.013607971895199</v>
           </cell>
@@ -5113,9 +4833,6 @@
           <cell r="Q69">
             <v>0</v>
           </cell>
-          <cell r="R69"/>
-          <cell r="S69"/>
-          <cell r="T69"/>
           <cell r="V69">
             <v>32.481206451878911</v>
           </cell>
@@ -5142,8 +4859,6 @@
           <cell r="B70" t="str">
             <v>кг</v>
           </cell>
-          <cell r="C70"/>
-          <cell r="D70"/>
           <cell r="E70">
             <v>56.411000000000001</v>
           </cell>
@@ -5174,9 +4889,6 @@
           <cell r="Q70">
             <v>0</v>
           </cell>
-          <cell r="R70"/>
-          <cell r="S70"/>
-          <cell r="T70"/>
           <cell r="V70" t="e">
             <v>#DIV/0!</v>
           </cell>
@@ -5200,11 +4912,9 @@
           <cell r="B71" t="str">
             <v>кг</v>
           </cell>
-          <cell r="C71"/>
           <cell r="D71">
             <v>595.64599999999996</v>
           </cell>
-          <cell r="E71"/>
           <cell r="F71">
             <v>144.28899999999999</v>
           </cell>
@@ -5235,9 +4945,6 @@
           <cell r="Q71">
             <v>0</v>
           </cell>
-          <cell r="R71"/>
-          <cell r="S71"/>
-          <cell r="T71"/>
           <cell r="V71">
             <v>19.767931027313242</v>
           </cell>
@@ -5267,7 +4974,6 @@
           <cell r="D72">
             <v>516</v>
           </cell>
-          <cell r="E72"/>
           <cell r="F72">
             <v>320</v>
           </cell>
@@ -5295,11 +5001,9 @@
           <cell r="Q72">
             <v>430</v>
           </cell>
-          <cell r="R72"/>
           <cell r="S72">
             <v>100</v>
           </cell>
-          <cell r="T72"/>
           <cell r="V72">
             <v>11.046875</v>
           </cell>
@@ -5323,11 +5027,9 @@
           <cell r="B73" t="str">
             <v>шт</v>
           </cell>
-          <cell r="C73"/>
           <cell r="D73">
             <v>42</v>
           </cell>
-          <cell r="E73"/>
           <cell r="F73">
             <v>34</v>
           </cell>
@@ -5355,9 +5057,6 @@
           <cell r="Q73">
             <v>55</v>
           </cell>
-          <cell r="R73"/>
-          <cell r="S73"/>
-          <cell r="T73"/>
           <cell r="V73">
             <v>8.5294117647058822</v>
           </cell>
@@ -5381,7 +5080,6 @@
           <cell r="B74" t="str">
             <v>шт</v>
           </cell>
-          <cell r="C74"/>
           <cell r="D74">
             <v>250</v>
           </cell>
@@ -5418,9 +5116,6 @@
           <cell r="Q74">
             <v>0</v>
           </cell>
-          <cell r="R74"/>
-          <cell r="S74"/>
-          <cell r="T74"/>
           <cell r="V74" t="e">
             <v>#DIV/0!</v>
           </cell>
@@ -5444,15 +5139,12 @@
           <cell r="B75" t="str">
             <v>шт</v>
           </cell>
-          <cell r="C75"/>
           <cell r="D75">
             <v>42</v>
           </cell>
-          <cell r="E75"/>
           <cell r="F75">
             <v>42</v>
           </cell>
-          <cell r="G75"/>
           <cell r="H75">
             <v>0</v>
           </cell>
@@ -5477,9 +5169,6 @@
           <cell r="Q75">
             <v>0</v>
           </cell>
-          <cell r="R75"/>
-          <cell r="S75"/>
-          <cell r="T75"/>
           <cell r="V75" t="e">
             <v>#DIV/0!</v>
           </cell>
@@ -5503,15 +5192,12 @@
           <cell r="B76" t="str">
             <v>шт</v>
           </cell>
-          <cell r="C76"/>
           <cell r="D76">
             <v>300</v>
           </cell>
-          <cell r="E76"/>
           <cell r="F76">
             <v>300</v>
           </cell>
-          <cell r="G76"/>
           <cell r="H76">
             <v>0</v>
           </cell>
@@ -5536,9 +5222,6 @@
           <cell r="Q76">
             <v>0</v>
           </cell>
-          <cell r="R76"/>
-          <cell r="S76"/>
-          <cell r="T76"/>
           <cell r="V76" t="e">
             <v>#DIV/0!</v>
           </cell>
@@ -5562,15 +5245,12 @@
           <cell r="B77" t="str">
             <v>шт</v>
           </cell>
-          <cell r="C77"/>
           <cell r="D77">
             <v>96</v>
           </cell>
-          <cell r="E77"/>
           <cell r="F77">
             <v>95</v>
           </cell>
-          <cell r="G77"/>
           <cell r="H77">
             <v>0</v>
           </cell>
@@ -5595,9 +5275,6 @@
           <cell r="Q77">
             <v>0</v>
           </cell>
-          <cell r="R77"/>
-          <cell r="S77"/>
-          <cell r="T77"/>
           <cell r="V77">
             <v>0</v>
           </cell>
@@ -5660,11 +5337,9 @@
           <cell r="Q78">
             <v>90</v>
           </cell>
-          <cell r="R78"/>
           <cell r="S78">
             <v>50</v>
           </cell>
-          <cell r="T78"/>
           <cell r="V78">
             <v>13.043478260869566</v>
           </cell>
@@ -5688,15 +5363,12 @@
           <cell r="B79" t="str">
             <v>шт</v>
           </cell>
-          <cell r="C79"/>
           <cell r="D79">
             <v>204</v>
           </cell>
-          <cell r="E79"/>
           <cell r="F79">
             <v>204</v>
           </cell>
-          <cell r="G79"/>
           <cell r="H79">
             <v>0</v>
           </cell>
@@ -5721,9 +5393,6 @@
           <cell r="Q79">
             <v>0</v>
           </cell>
-          <cell r="R79"/>
-          <cell r="S79"/>
-          <cell r="T79"/>
           <cell r="V79" t="e">
             <v>#DIV/0!</v>
           </cell>
@@ -5747,7 +5416,6 @@
           <cell r="B80" t="str">
             <v>кг</v>
           </cell>
-          <cell r="C80"/>
           <cell r="D80">
             <v>12.109</v>
           </cell>
@@ -5781,9 +5449,6 @@
           <cell r="Q80">
             <v>0</v>
           </cell>
-          <cell r="R80"/>
-          <cell r="S80"/>
-          <cell r="T80"/>
           <cell r="V80">
             <v>16.312356777719017</v>
           </cell>
@@ -5807,8 +5472,6 @@
           <cell r="B81" t="str">
             <v>шт</v>
           </cell>
-          <cell r="C81"/>
-          <cell r="D81"/>
           <cell r="E81">
             <v>16</v>
           </cell>
@@ -5836,9 +5499,6 @@
           <cell r="Q81">
             <v>0</v>
           </cell>
-          <cell r="R81"/>
-          <cell r="S81"/>
-          <cell r="T81"/>
           <cell r="V81">
             <v>-80</v>
           </cell>
@@ -5862,11 +5522,9 @@
           <cell r="B82" t="str">
             <v>шт</v>
           </cell>
-          <cell r="C82"/>
           <cell r="D82">
             <v>66</v>
           </cell>
-          <cell r="E82"/>
           <cell r="F82">
             <v>71</v>
           </cell>
@@ -5894,11 +5552,9 @@
           <cell r="Q82">
             <v>75</v>
           </cell>
-          <cell r="R82"/>
           <cell r="S82">
             <v>50</v>
           </cell>
-          <cell r="T82"/>
           <cell r="V82">
             <v>8.23943661971831</v>
           </cell>
@@ -5922,7 +5578,6 @@
           <cell r="B83" t="str">
             <v>кг</v>
           </cell>
-          <cell r="C83"/>
           <cell r="D83">
             <v>121.145</v>
           </cell>
@@ -5959,11 +5614,9 @@
           <cell r="Q83">
             <v>120</v>
           </cell>
-          <cell r="R83"/>
           <cell r="S83">
             <v>60</v>
           </cell>
-          <cell r="T83"/>
           <cell r="V83">
             <v>11.063750790696821</v>
           </cell>
@@ -5987,7 +5640,6 @@
           <cell r="B84" t="str">
             <v>шт</v>
           </cell>
-          <cell r="C84"/>
           <cell r="D84">
             <v>106</v>
           </cell>
@@ -6021,11 +5673,9 @@
           <cell r="Q84">
             <v>90</v>
           </cell>
-          <cell r="R84"/>
           <cell r="S84">
             <v>40</v>
           </cell>
-          <cell r="T84"/>
           <cell r="V84">
             <v>11.153846153846153</v>
           </cell>
@@ -6055,7 +5705,6 @@
           <cell r="D85">
             <v>97.212999999999994</v>
           </cell>
-          <cell r="E85"/>
           <cell r="F85">
             <v>86.375</v>
           </cell>
@@ -6083,11 +5732,9 @@
           <cell r="Q85">
             <v>100</v>
           </cell>
-          <cell r="R85"/>
           <cell r="S85">
             <v>40</v>
           </cell>
-          <cell r="T85"/>
           <cell r="V85">
             <v>8.104081041968163</v>
           </cell>
@@ -6117,7 +5764,6 @@
           <cell r="D86">
             <v>107.994</v>
           </cell>
-          <cell r="E86"/>
           <cell r="F86">
             <v>51.26</v>
           </cell>
@@ -6145,11 +5791,9 @@
           <cell r="Q86">
             <v>60</v>
           </cell>
-          <cell r="R86"/>
           <cell r="S86">
             <v>20</v>
           </cell>
-          <cell r="T86"/>
           <cell r="V86">
             <v>13.33730003901678</v>
           </cell>
@@ -6179,7 +5823,6 @@
           <cell r="D87">
             <v>516</v>
           </cell>
-          <cell r="E87"/>
           <cell r="F87">
             <v>417</v>
           </cell>
@@ -6207,11 +5850,9 @@
           <cell r="Q87">
             <v>485</v>
           </cell>
-          <cell r="R87"/>
           <cell r="S87">
             <v>200</v>
           </cell>
-          <cell r="T87"/>
           <cell r="V87">
             <v>9.0047961630695443</v>
           </cell>
@@ -6241,7 +5882,6 @@
           <cell r="D88">
             <v>390</v>
           </cell>
-          <cell r="E88"/>
           <cell r="F88">
             <v>298</v>
           </cell>
@@ -6269,11 +5909,9 @@
           <cell r="Q88">
             <v>270</v>
           </cell>
-          <cell r="R88"/>
           <cell r="S88">
             <v>200</v>
           </cell>
-          <cell r="T88"/>
           <cell r="V88">
             <v>9.0100671140939603</v>
           </cell>
@@ -6297,11 +5935,9 @@
           <cell r="B89" t="str">
             <v>шт</v>
           </cell>
-          <cell r="C89"/>
           <cell r="D89">
             <v>72</v>
           </cell>
-          <cell r="E89"/>
           <cell r="F89">
             <v>42</v>
           </cell>
@@ -6332,9 +5968,6 @@
           <cell r="Q89">
             <v>0</v>
           </cell>
-          <cell r="R89"/>
-          <cell r="S89"/>
-          <cell r="T89"/>
           <cell r="V89" t="e">
             <v>#DIV/0!</v>
           </cell>
@@ -6358,15 +5991,12 @@
           <cell r="B90" t="str">
             <v>шт</v>
           </cell>
-          <cell r="C90"/>
           <cell r="D90">
             <v>88</v>
           </cell>
-          <cell r="E90"/>
           <cell r="F90">
             <v>88</v>
           </cell>
-          <cell r="G90"/>
           <cell r="H90">
             <v>0</v>
           </cell>
@@ -6391,9 +6021,6 @@
           <cell r="Q90">
             <v>0</v>
           </cell>
-          <cell r="R90"/>
-          <cell r="S90"/>
-          <cell r="T90"/>
           <cell r="V90" t="e">
             <v>#DIV/0!</v>
           </cell>
@@ -6417,15 +6044,12 @@
           <cell r="B91" t="str">
             <v>шт</v>
           </cell>
-          <cell r="C91"/>
           <cell r="D91">
             <v>96</v>
           </cell>
-          <cell r="E91"/>
           <cell r="F91">
             <v>96</v>
           </cell>
-          <cell r="G91"/>
           <cell r="H91">
             <v>0</v>
           </cell>
@@ -6450,9 +6074,6 @@
           <cell r="Q91">
             <v>0</v>
           </cell>
-          <cell r="R91"/>
-          <cell r="S91"/>
-          <cell r="T91"/>
           <cell r="V91" t="e">
             <v>#DIV/0!</v>
           </cell>
@@ -6476,15 +6097,12 @@
           <cell r="B92" t="str">
             <v>шт</v>
           </cell>
-          <cell r="C92"/>
           <cell r="D92">
             <v>52</v>
           </cell>
-          <cell r="E92"/>
           <cell r="F92">
             <v>52</v>
           </cell>
-          <cell r="G92"/>
           <cell r="H92">
             <v>0</v>
           </cell>
@@ -6509,9 +6127,6 @@
           <cell r="Q92">
             <v>0</v>
           </cell>
-          <cell r="R92"/>
-          <cell r="S92"/>
-          <cell r="T92"/>
           <cell r="V92" t="e">
             <v>#DIV/0!</v>
           </cell>
@@ -6541,7 +6156,6 @@
           <cell r="D93">
             <v>61</v>
           </cell>
-          <cell r="E93"/>
           <cell r="F93">
             <v>36</v>
           </cell>
@@ -6572,9 +6186,6 @@
           <cell r="Q93">
             <v>35</v>
           </cell>
-          <cell r="R93"/>
-          <cell r="S93"/>
-          <cell r="T93"/>
           <cell r="V93">
             <v>12.916666666666666</v>
           </cell>
@@ -6598,11 +6209,9 @@
           <cell r="B94" t="str">
             <v>кг</v>
           </cell>
-          <cell r="C94"/>
           <cell r="D94">
             <v>260.733</v>
           </cell>
-          <cell r="E94"/>
           <cell r="F94">
             <v>189.56700000000001</v>
           </cell>
@@ -6633,11 +6242,9 @@
           <cell r="Q94">
             <v>215</v>
           </cell>
-          <cell r="R94"/>
           <cell r="S94">
             <v>100</v>
           </cell>
-          <cell r="T94"/>
           <cell r="V94">
             <v>10.018331249637331</v>
           </cell>
@@ -6661,7 +6268,6 @@
           <cell r="B95" t="str">
             <v>кг</v>
           </cell>
-          <cell r="C95"/>
           <cell r="D95">
             <v>100.898</v>
           </cell>
@@ -6698,11 +6304,9 @@
           <cell r="Q95">
             <v>75</v>
           </cell>
-          <cell r="R95"/>
           <cell r="S95">
             <v>40</v>
           </cell>
-          <cell r="T95"/>
           <cell r="V95">
             <v>10.91336178209294</v>
           </cell>
@@ -6726,8 +6330,6 @@
           <cell r="B96" t="str">
             <v>кг</v>
           </cell>
-          <cell r="C96"/>
-          <cell r="D96"/>
           <cell r="E96">
             <v>10.88</v>
           </cell>
@@ -6755,9 +6357,6 @@
           <cell r="Q96">
             <v>0</v>
           </cell>
-          <cell r="R96"/>
-          <cell r="S96"/>
-          <cell r="T96"/>
           <cell r="V96" t="e">
             <v>#DIV/0!</v>
           </cell>
@@ -6781,8 +6380,6 @@
           <cell r="B97" t="str">
             <v>кг</v>
           </cell>
-          <cell r="C97"/>
-          <cell r="D97"/>
           <cell r="E97">
             <v>4.3339999999999996</v>
           </cell>
@@ -6813,9 +6410,6 @@
           <cell r="Q97">
             <v>0</v>
           </cell>
-          <cell r="R97"/>
-          <cell r="S97"/>
-          <cell r="T97"/>
           <cell r="V97" t="e">
             <v>#DIV/0!</v>
           </cell>
@@ -6839,7 +6433,6 @@
           <cell r="B98" t="str">
             <v>шт</v>
           </cell>
-          <cell r="C98"/>
           <cell r="D98">
             <v>2</v>
           </cell>
@@ -6873,9 +6466,6 @@
           <cell r="Q98">
             <v>0</v>
           </cell>
-          <cell r="R98"/>
-          <cell r="S98"/>
-          <cell r="T98"/>
           <cell r="V98">
             <v>-5</v>
           </cell>
@@ -6899,7 +6489,6 @@
           <cell r="B99" t="str">
             <v>шт</v>
           </cell>
-          <cell r="C99"/>
           <cell r="D99">
             <v>78</v>
           </cell>
@@ -6933,11 +6522,9 @@
           <cell r="Q99">
             <v>65</v>
           </cell>
-          <cell r="R99"/>
           <cell r="S99">
             <v>30</v>
           </cell>
-          <cell r="T99"/>
           <cell r="V99">
             <v>13.125</v>
           </cell>
@@ -6961,7 +6548,6 @@
           <cell r="B100" t="str">
             <v>шт</v>
           </cell>
-          <cell r="C100"/>
           <cell r="D100">
             <v>136</v>
           </cell>
@@ -6995,9 +6581,6 @@
           <cell r="Q100">
             <v>10</v>
           </cell>
-          <cell r="R100"/>
-          <cell r="S100"/>
-          <cell r="T100"/>
           <cell r="V100">
             <v>12.990196078431373</v>
           </cell>
@@ -7021,8 +6604,6 @@
           <cell r="B101" t="str">
             <v>кг</v>
           </cell>
-          <cell r="C101"/>
-          <cell r="D101"/>
           <cell r="E101">
             <v>10.945</v>
           </cell>
@@ -7050,9 +6631,6 @@
           <cell r="Q101">
             <v>0</v>
           </cell>
-          <cell r="R101"/>
-          <cell r="S101"/>
-          <cell r="T101"/>
           <cell r="V101" t="e">
             <v>#DIV/0!</v>
           </cell>
@@ -7076,8 +6654,6 @@
           <cell r="B102" t="str">
             <v>кг</v>
           </cell>
-          <cell r="C102"/>
-          <cell r="D102"/>
           <cell r="E102">
             <v>258.10500000000002</v>
           </cell>
@@ -7108,9 +6684,6 @@
           <cell r="Q102">
             <v>0</v>
           </cell>
-          <cell r="R102"/>
-          <cell r="S102"/>
-          <cell r="T102"/>
           <cell r="V102" t="e">
             <v>#DIV/0!</v>
           </cell>
@@ -7134,8 +6707,6 @@
           <cell r="B103" t="str">
             <v>шт</v>
           </cell>
-          <cell r="C103"/>
-          <cell r="D103"/>
           <cell r="E103">
             <v>6</v>
           </cell>
@@ -7163,9 +6734,6 @@
           <cell r="Q103">
             <v>0</v>
           </cell>
-          <cell r="R103"/>
-          <cell r="S103"/>
-          <cell r="T103"/>
           <cell r="V103" t="e">
             <v>#DIV/0!</v>
           </cell>
@@ -7189,8 +6757,6 @@
           <cell r="B104" t="str">
             <v>шт</v>
           </cell>
-          <cell r="C104"/>
-          <cell r="D104"/>
           <cell r="E104">
             <v>6</v>
           </cell>
@@ -7218,9 +6784,6 @@
           <cell r="Q104">
             <v>0</v>
           </cell>
-          <cell r="R104"/>
-          <cell r="S104"/>
-          <cell r="T104"/>
           <cell r="V104" t="e">
             <v>#DIV/0!</v>
           </cell>
@@ -7244,7 +6807,6 @@
           <cell r="B105" t="str">
             <v>шт</v>
           </cell>
-          <cell r="C105"/>
           <cell r="D105">
             <v>-6</v>
           </cell>
@@ -7278,9 +6840,6 @@
           <cell r="Q105">
             <v>0</v>
           </cell>
-          <cell r="R105"/>
-          <cell r="S105"/>
-          <cell r="T105"/>
           <cell r="V105">
             <v>-5</v>
           </cell>
@@ -7304,8 +6863,6 @@
           <cell r="B106" t="str">
             <v>кг</v>
           </cell>
-          <cell r="C106"/>
-          <cell r="D106"/>
           <cell r="E106">
             <v>36.241</v>
           </cell>
@@ -7336,9 +6893,6 @@
           <cell r="Q106">
             <v>0</v>
           </cell>
-          <cell r="R106"/>
-          <cell r="S106"/>
-          <cell r="T106"/>
           <cell r="V106">
             <v>-5</v>
           </cell>
@@ -7362,7 +6916,6 @@
           <cell r="B107" t="str">
             <v>кг</v>
           </cell>
-          <cell r="C107"/>
           <cell r="D107">
             <v>-6.7220000000000004</v>
           </cell>
@@ -7396,9 +6949,6 @@
           <cell r="Q107">
             <v>0</v>
           </cell>
-          <cell r="R107"/>
-          <cell r="S107"/>
-          <cell r="T107"/>
           <cell r="V107">
             <v>-4.7742213958430169</v>
           </cell>
@@ -7422,11 +6972,9 @@
           <cell r="B108" t="str">
             <v>шт</v>
           </cell>
-          <cell r="C108"/>
           <cell r="D108">
             <v>8</v>
           </cell>
-          <cell r="E108"/>
           <cell r="F108">
             <v>1</v>
           </cell>
@@ -7454,9 +7002,6 @@
           <cell r="Q108">
             <v>0</v>
           </cell>
-          <cell r="R108"/>
-          <cell r="S108"/>
-          <cell r="T108"/>
           <cell r="V108">
             <v>35</v>
           </cell>
@@ -7480,11 +7025,9 @@
           <cell r="B109" t="str">
             <v>кг</v>
           </cell>
-          <cell r="C109"/>
           <cell r="D109">
             <v>36.814</v>
           </cell>
-          <cell r="E109"/>
           <cell r="F109">
             <v>0</v>
           </cell>
@@ -7512,9 +7055,6 @@
           <cell r="Q109">
             <v>0</v>
           </cell>
-          <cell r="R109"/>
-          <cell r="S109"/>
-          <cell r="T109"/>
           <cell r="V109" t="e">
             <v>#DIV/0!</v>
           </cell>
@@ -7538,11 +7078,9 @@
           <cell r="B110" t="str">
             <v>кг</v>
           </cell>
-          <cell r="C110"/>
           <cell r="D110">
             <v>167.078</v>
           </cell>
-          <cell r="E110"/>
           <cell r="F110">
             <v>96.771000000000001</v>
           </cell>
@@ -7570,9 +7108,6 @@
           <cell r="Q110">
             <v>0</v>
           </cell>
-          <cell r="R110"/>
-          <cell r="S110"/>
-          <cell r="T110"/>
           <cell r="V110">
             <v>3.2122743383865004</v>
           </cell>
@@ -7590,7 +7125,7 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -10285,8 +9820,8 @@
   <dimension ref="A1:AC158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA44" sqref="AA44"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -10427,10 +9962,10 @@
       <c r="M4" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="N4" s="29" t="s">
+      <c r="N4" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="O4" s="29"/>
+      <c r="O4" s="32"/>
       <c r="P4" s="13"/>
       <c r="Q4" s="13"/>
       <c r="R4" s="28" t="s">
@@ -16496,21 +16031,21 @@
       </c>
     </row>
     <row r="74" spans="1:29" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="31" t="s">
+      <c r="A74" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="B74" s="31" t="s">
+      <c r="B74" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C74" s="31"/>
-      <c r="D74" s="32">
+      <c r="C74" s="30"/>
+      <c r="D74" s="31">
         <v>64.960999999999999</v>
       </c>
-      <c r="E74" s="32"/>
-      <c r="F74" s="32">
+      <c r="E74" s="31"/>
+      <c r="F74" s="31">
         <v>27.949000000000002</v>
       </c>
-      <c r="G74" s="32">
+      <c r="G74" s="31">
         <v>37.012</v>
       </c>
       <c r="H74" s="24">
@@ -16576,7 +16111,7 @@
         <f>VLOOKUP(A74,[1]TDSheet!$A:$P,16,0)</f>
         <v>0.54580000000000006</v>
       </c>
-      <c r="AA74" s="30" t="s">
+      <c r="AA74" s="29" t="s">
         <v>187</v>
       </c>
       <c r="AB74" s="3">
@@ -23010,11 +22545,10 @@
         <v>819</v>
       </c>
       <c r="H150" s="24">
-        <v>0</v>
-      </c>
-      <c r="I150" s="3" t="e">
-        <f>VLOOKUP(A150,[1]TDSheet!$A:$I,9,0)</f>
-        <v>#N/A</v>
+        <v>0.35</v>
+      </c>
+      <c r="I150" s="3">
+        <v>40</v>
       </c>
       <c r="J150" s="3">
         <f>VLOOKUP(A150,[2]Донецк!$A:$E,4,0)</f>
